--- a/biology/Zoologie/Cryptocephalus/Cryptocephalus.xlsx
+++ b/biology/Zoologie/Cryptocephalus/Cryptocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocephalus est un genre d'insectes de l'ordre des coléoptères et de la famille des Chrysomelidae.
 </t>
@@ -511,12 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas unanimité, en 2022, sur le descripteur initial : Néanmoins Paleobiology Database et Fossilworks, GBIF, ITIS, et BioLib, donnent Cryptocephalus Geoffroy, 1762.
-Descripteur initial : non unanimité
-Fauna Europaea donne Cryptocephalus Müller, 1764.
-Australian Fauna Directory donne Genus Cryptocephalus Chapuis, 1875.
 </t>
         </is>
       </c>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Descripteur initial : non unanimité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fauna Europaea donne Cryptocephalus Müller, 1764.
+Australian Fauna Directory donne Genus Cryptocephalus Chapuis, 1875.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cryptocephalus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptocephalus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cryptocephalus abdominalis
@@ -578,7 +629,7 @@
 Cryptocephalus baborensis
 Cryptocephalus badius Suffrian, 1852
 Cryptocephalus baeticus
-Cryptocephalus bahilloi José Ignacio López Colón,, 2003
+Cryptocephalus bahilloi José Ignacio López Colón 2003
 Cryptocephalus bailundensis Weise
 Cryptocephalus bameuli
 Cryptocephalus barii
@@ -873,15 +924,50 @@
 Cryptocephalus xanthus
 Cryptocephalus zambanellus
 Cryptocephalus zoiai
-Espèces fossiles
-La Paleobiology Database signale, en 2022, sept taxons fossiles dans ce genre[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cryptocephalus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptocephalus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Paleobiology Database signale, en 2022, sept taxons fossiles dans ce genre :
 †Cryptocephalus groehni Bukejs and Chamorro 2015
 †Cryptocephalus kheelorum Chamorro and Bukejs 2015
 †Cryptocephalus minusculus Piton 1940
 †Cryptocephalus miocenus Wickham 1913
 †Cryptocephalus pitoni Théobald 1937
 †Cryptocephalus relictus von Schlechtendal 1894
-†Cryptocephalus vetustus Scudder 1878 [1]
+†Cryptocephalus vetustus Scudder 1878 
 </t>
         </is>
       </c>
